--- a/Symptom_data.xlsx
+++ b/Symptom_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/da12284/OneDrive - University of Bristol/My UoB documents/Documents/Research/DISCOVER/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\discover_fu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16969C17-87B9-014A-83F9-79C0F551443D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412700FF-9063-4BBC-A0A1-9D796EFAAEAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{634ADCF9-CC75-F64D-AD00-16BF02F232D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{634ADCF9-CC75-F64D-AD00-16BF02F232D4}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL (66)" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -835,7 +835,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -931,7 +931,7 @@
                   <c:v>Joint Pain</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Anosmia/Paranosmia</c:v>
+                  <c:v>Anosmia</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Cough</c:v>
@@ -1050,7 +1050,7 @@
                   <c:v>Joint Pain</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Anosmia/Paranosmia</c:v>
+                  <c:v>Anosmia</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Cough</c:v>
@@ -1169,7 +1169,7 @@
                   <c:v>Joint Pain</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Anosmia/Paranosmia</c:v>
+                  <c:v>Anosmia</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Cough</c:v>
@@ -2918,14 +2918,14 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>60.606060606060609</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>37.878787878787875</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>28.787878787878789</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>24.242424242424242</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>19.696969696969695</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>19.696969696969695</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>21.212121212121211</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>15.151515151515152</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>13.636363636363635</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>10.606060606060606</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>16.666666666666664</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>15.151515151515152</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>10.606060606060606</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>7.5757575757575761</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>6.0606060606060606</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3211,6 +3211,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3218,26 +3219,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3D5D04-4EEC-CD41-9591-CAB5B0BAAACF}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -3269,7 +3270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3305,7 +3306,7 @@
         <v>11.363636363636363</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>6.8181818181818175</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3377,7 +3378,7 @@
         <v>13.636363636363635</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3413,7 +3414,7 @@
         <v>9.0909090909090917</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3485,7 +3486,7 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -3521,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -3557,7 +3558,7 @@
         <v>2.2727272727272729</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>6.8181818181818175</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -3629,7 +3630,7 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -3665,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -3701,7 +3702,7 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -3737,7 +3738,7 @@
         <v>2.2727272727272729</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3773,7 +3774,7 @@
         <v>2.2727272727272729</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -3809,7 +3810,7 @@
         <v>6.8181818181818175</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>2.2727272727272729</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -3881,7 +3882,7 @@
         <v>2.2727272727272729</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -3907,24 +3908,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5777AE5F-7161-4D66-B1DA-7E6CD074D331}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3953,7 +3954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3985,7 +3986,7 @@
         <v>13.636363636363635</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4017,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -4049,7 +4050,7 @@
         <v>9.0909090909090917</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -4081,7 +4082,7 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -4113,7 +4114,7 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4145,9 +4146,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
@@ -4177,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -4209,7 +4210,7 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -4241,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -4273,7 +4274,7 @@
         <v>13.636363636363635</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -4305,7 +4306,7 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -4337,7 +4338,7 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -4369,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -4401,7 +4402,7 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -4433,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -4465,7 +4466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -4497,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -4511,7 +4512,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4523,9 +4525,9 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -4540,7 +4542,7 @@
         <v>45.454545454545453</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -4555,7 +4557,7 @@
         <v>38.636363636363633</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4570,7 +4572,7 @@
         <v>20.454545454545457</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4585,7 +4587,7 @@
         <v>20.454545454545457</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -4600,17 +4602,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>